--- a/Threshold/Zn/2His_1Glu/2.xlsx
+++ b/Threshold/Zn/2His_1Glu/2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Metal_installer_geometric_parameters\Zn\2His_1Glu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Threshold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD58ABEF-22D9-4074-8DD9-0CBE9618AE16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5591545E-3E75-4521-83F3-4C9872CC96FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="9930" xr2:uid="{444FD90F-5675-4CD1-B932-DF78084F93BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26025" windowHeight="9690" xr2:uid="{444FD90F-5675-4CD1-B932-DF78084F93BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Parameter</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>ratio_threshold_range</t>
-  </si>
-  <si>
-    <t>theta_threshold_range</t>
   </si>
   <si>
     <t>pie_threshold_range</t>
@@ -427,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF80A70-DF38-4711-9C26-F73716934B88}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -456,7 +453,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>10.4</v>
@@ -467,7 +464,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>4.0999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="C3" s="2">
         <v>9.1999999999999993</v>
@@ -478,7 +475,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C4" s="2">
         <v>1.4</v>
@@ -489,25 +486,15 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>19.899999999999999</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Threshold/Zn/2His_1Glu/2.xlsx
+++ b/Threshold/Zn/2His_1Glu/2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Threshold\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Metal_installer_geometric_parameters\Zn\2His_1Glu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5591545E-3E75-4521-83F3-4C9872CC96FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095A1DC7-80BB-4082-A06F-ABEC79849A75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26025" windowHeight="9690" xr2:uid="{444FD90F-5675-4CD1-B932-DF78084F93BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="9930" xr2:uid="{444FD90F-5675-4CD1-B932-DF78084F93BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Parameter</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>ratio_threshold_range</t>
+  </si>
+  <si>
+    <t>theta_threshold_range</t>
   </si>
   <si>
     <t>pie_threshold_range</t>
@@ -424,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF80A70-DF38-4711-9C26-F73716934B88}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -453,7 +456,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
         <v>10.4</v>
@@ -464,7 +467,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>5.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C3" s="2">
         <v>9.1999999999999993</v>
@@ -475,7 +478,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C4" s="2">
         <v>1.4</v>
@@ -486,10 +489,21 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
-        <v>15</v>
+      <c r="C6" s="2">
+        <v>19.899999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Threshold/Zn/2His_1Glu/2.xlsx
+++ b/Threshold/Zn/2His_1Glu/2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Metal_installer_geometric_parameters\Zn\2His_1Glu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\250330_Metal_installer_revision\Zn\2His_1Glu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095A1DC7-80BB-4082-A06F-ABEC79849A75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355B5228-3FC7-429B-B64B-E1947E6C15D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="9930" xr2:uid="{444FD90F-5675-4CD1-B932-DF78084F93BA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Parameter</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>ratio_threshold_range</t>
-  </si>
-  <si>
-    <t>theta_threshold_range</t>
   </si>
   <si>
     <t>pie_threshold_range</t>
@@ -427,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF80A70-DF38-4711-9C26-F73716934B88}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -459,7 +456,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>10.4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -467,10 +464,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>4.0999999999999996</v>
+        <v>5.5</v>
       </c>
       <c r="C3" s="2">
-        <v>9.1999999999999993</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -489,21 +486,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>19.899999999999999</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Threshold/Zn/2His_1Glu/2.xlsx
+++ b/Threshold/Zn/2His_1Glu/2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\250330_Metal_installer_revision\Zn\2His_1Glu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\2His_1Asp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355B5228-3FC7-429B-B64B-E1947E6C15D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC333439-B9A7-4BD2-87DE-3D99333E3EA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="9930" xr2:uid="{444FD90F-5675-4CD1-B932-DF78084F93BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="7395" xr2:uid="{444FD90F-5675-4CD1-B932-DF78084F93BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,10 +453,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C2" s="2">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -464,10 +464,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -475,7 +475,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C4" s="2">
         <v>1.4</v>

--- a/Threshold/Zn/2His_1Glu/2.xlsx
+++ b/Threshold/Zn/2His_1Glu/2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\2His_1Asp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\2His_1Glu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC333439-B9A7-4BD2-87DE-3D99333E3EA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{242D65DE-7266-40A7-A7B8-9E1CF45CE20C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="7395" xr2:uid="{444FD90F-5675-4CD1-B932-DF78084F93BA}"/>
   </bookViews>
@@ -100,12 +100,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -437,7 +440,7 @@
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,22 +455,22 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>10.5</v>
+      <c r="B2" s="3">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9</v>
+      <c r="B3" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>9.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -489,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Threshold/Zn/2His_1Glu/2.xlsx
+++ b/Threshold/Zn/2His_1Glu/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\2His_1Glu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{242D65DE-7266-40A7-A7B8-9E1CF45CE20C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84053B3A-2181-4283-A17A-772044FC51FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="7395" xr2:uid="{444FD90F-5675-4CD1-B932-DF78084F93BA}"/>
   </bookViews>
